--- a/CalculationSheet.xlsx
+++ b/CalculationSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectsUnderConstruction\PunchMonitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65F3D15-FD09-48DA-B3B4-C278F6830EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D11D73-8DE7-4493-9331-F549CAFB9C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,11 +552,12 @@
       <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B36"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.140625" hidden="1" customWidth="1"/>
@@ -802,9 +803,8 @@
       <c r="A3" s="3">
         <v>109</v>
       </c>
-      <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <f>COUNTIFS($J3:$AN3,"&gt;"&amp;TIME(8,0,0),$J3:$AN3,"&lt;"&amp;TIME(18,0,0))+E3+G3+H3+$C$2</f>
+        <f>COUNTIFS($J3:$AN3,"&gt;"&amp;TIME(8,0,0),$J3:$AN3,"&lt;"&amp;TIME(18,0,0))+E3+G3+H3+$C$2+COUNTIF($J3:$AN3,"CO")+COUNTIF($J3:$AN3,"CL")+COUNTIF($J3:$AN3,"Vacation")</f>
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -872,9 +872,8 @@
       <c r="A4" s="3">
         <v>122</v>
       </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C36" si="20">COUNTIFS($J4:$AN4,"&gt;"&amp;TIME(8,0,0),$J4:$AN4,"&lt;"&amp;TIME(18,0,0))+E4+G4+H4+$C$2</f>
+        <f t="shared" ref="C4:C36" si="20">COUNTIFS($J4:$AN4,"&gt;"&amp;TIME(8,0,0),$J4:$AN4,"&lt;"&amp;TIME(18,0,0))+E4+G4+H4+$C$2+COUNTIF($J4:$AN4,"CO")+COUNTIF($J4:$AN4,"CL")+COUNTIF($J4:$AN4,"Vacation")</f>
         <v>5</v>
       </c>
       <c r="D4" s="1">
@@ -942,7 +941,6 @@
       <c r="A5" s="3">
         <v>128</v>
       </c>
-      <c r="B5" s="1"/>
       <c r="C5" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -1012,7 +1010,6 @@
       <c r="A6" s="3">
         <v>132</v>
       </c>
-      <c r="B6" s="1"/>
       <c r="C6" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -1082,7 +1079,6 @@
       <c r="A7" s="3">
         <v>133</v>
       </c>
-      <c r="B7" s="1"/>
       <c r="C7" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -1152,7 +1148,6 @@
       <c r="A8" s="3">
         <v>158</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -1222,7 +1217,6 @@
       <c r="A9" s="3">
         <v>159</v>
       </c>
-      <c r="B9" s="1"/>
       <c r="C9" s="1">
         <f t="shared" si="20"/>
         <v>4</v>
@@ -1292,7 +1286,6 @@
       <c r="A10" s="3">
         <v>206</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -1364,7 +1357,6 @@
       <c r="A11" s="3">
         <v>211</v>
       </c>
-      <c r="B11" s="1"/>
       <c r="C11" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -1434,7 +1426,6 @@
       <c r="A12" s="3">
         <v>213</v>
       </c>
-      <c r="B12" s="1"/>
       <c r="C12" s="1">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -1504,7 +1495,6 @@
       <c r="A13" s="3">
         <v>216</v>
       </c>
-      <c r="B13" s="1"/>
       <c r="C13" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -1576,7 +1566,6 @@
       <c r="A14" s="3">
         <v>230</v>
       </c>
-      <c r="B14" s="1"/>
       <c r="C14" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -1647,7 +1636,6 @@
       <c r="A15" s="3">
         <v>833</v>
       </c>
-      <c r="B15" s="1"/>
       <c r="C15" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -1717,7 +1705,6 @@
       <c r="A16" s="3">
         <v>270</v>
       </c>
-      <c r="B16" s="1"/>
       <c r="C16" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -1787,7 +1774,6 @@
       <c r="A17" s="3">
         <v>280</v>
       </c>
-      <c r="B17" s="1"/>
       <c r="C17" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -1857,7 +1843,6 @@
       <c r="A18" s="3">
         <v>281</v>
       </c>
-      <c r="B18" s="1"/>
       <c r="C18" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -1927,7 +1912,6 @@
       <c r="A19" s="3">
         <v>283</v>
       </c>
-      <c r="B19" s="1"/>
       <c r="C19" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -1997,7 +1981,6 @@
       <c r="A20" s="3">
         <v>277</v>
       </c>
-      <c r="B20" s="1"/>
       <c r="C20" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2068,7 +2051,6 @@
       <c r="A21" s="3">
         <v>291</v>
       </c>
-      <c r="B21" s="1"/>
       <c r="C21" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2140,18 +2122,17 @@
       <c r="A22" s="3">
         <v>292</v>
       </c>
-      <c r="B22" s="1"/>
       <c r="C22" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="22">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="23"/>
@@ -2173,7 +2154,7 @@
         <v>0.3379050925925926</v>
       </c>
       <c r="K22" s="25">
-        <v>0.2940625</v>
+        <v>0.33572916666666663</v>
       </c>
       <c r="L22" s="25">
         <v>0.33476851851851852</v>
@@ -2211,7 +2192,6 @@
       <c r="A23" s="3">
         <v>294</v>
       </c>
-      <c r="B23" s="1"/>
       <c r="C23" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2282,7 +2262,6 @@
       <c r="A24" s="3">
         <v>297</v>
       </c>
-      <c r="B24" s="1"/>
       <c r="C24" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2352,7 +2331,6 @@
       <c r="A25" s="3">
         <v>298</v>
       </c>
-      <c r="B25" s="1"/>
       <c r="C25" s="1">
         <f t="shared" si="20"/>
         <v>3</v>
@@ -2422,7 +2400,6 @@
       <c r="A26" s="3">
         <v>299</v>
       </c>
-      <c r="B26" s="1"/>
       <c r="C26" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2492,7 +2469,6 @@
       <c r="A27" s="3">
         <v>300</v>
       </c>
-      <c r="B27" s="1"/>
       <c r="C27" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2562,9 +2538,8 @@
       <c r="A28" s="3">
         <v>312</v>
       </c>
-      <c r="B28" s="1"/>
       <c r="C28" s="1">
-        <f>COUNTIFS($J28:$AN28,"&gt;"&amp;TIME(8,0,0),$J28:$AN28,"&lt;"&amp;TIME(18,0,0))+E28+G28+H28+$C$2</f>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="D28" s="1">
@@ -2632,7 +2607,6 @@
       <c r="A29" s="3">
         <v>315</v>
       </c>
-      <c r="B29" s="1"/>
       <c r="C29" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2702,7 +2676,6 @@
       <c r="A30" s="3">
         <v>321</v>
       </c>
-      <c r="B30" s="1"/>
       <c r="C30" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2772,7 +2745,6 @@
       <c r="A31" s="3">
         <v>322</v>
       </c>
-      <c r="B31" s="1"/>
       <c r="C31" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2842,7 +2814,6 @@
       <c r="A32" s="3">
         <v>323</v>
       </c>
-      <c r="B32" s="1"/>
       <c r="C32" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -2912,7 +2883,6 @@
       <c r="A33" s="3">
         <v>329</v>
       </c>
-      <c r="B33" s="1"/>
       <c r="C33" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -2983,7 +2953,6 @@
       <c r="A34" s="3">
         <v>330</v>
       </c>
-      <c r="B34" s="1"/>
       <c r="C34" s="1">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -3053,7 +3022,6 @@
       <c r="A35" s="3">
         <v>337</v>
       </c>
-      <c r="B35" s="1"/>
       <c r="C35" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -3123,7 +3091,6 @@
       <c r="A36" s="3">
         <v>338</v>
       </c>
-      <c r="B36" s="1"/>
       <c r="C36" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
